--- a/Словарь коды дистрибьютеров.xlsx
+++ b/Словарь коды дистрибьютеров.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>SAPcode SG</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Код SG</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -469,6 +474,9 @@
       </c>
       <c r="D2" t="b">
         <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1030007</v>
       </c>
     </row>
   </sheetData>

--- a/Словарь коды дистрибьютеров.xlsx
+++ b/Словарь коды дистрибьютеров.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1030007</v>
+        <v>1344</v>
       </c>
     </row>
   </sheetData>

--- a/Словарь коды дистрибьютеров.xlsx
+++ b/Словарь коды дистрибьютеров.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,63 @@
         <v>1344</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7000712</v>
+      </c>
+      <c r="B3" t="n">
+        <v>291596</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Каркас-П-37-100 ISOVER 1170*610*100 (в упак. 10 плит 0,714 м3), </t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>7000712</v>
+      </c>
+      <c r="B4" t="n">
+        <v>420374</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ISOVER Каркас-П-37-50 1170*610*50 мм (в уп. 20 плит 0,714 м3), </t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7000712</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5798</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Штукатурка гипсовая механическая Вебер Ветонит Mech Gyps 30 кг, </t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
